--- a/biology/Médecine/Jan_Zaorski/Jan_Zaorski.xlsx
+++ b/biology/Médecine/Jan_Zaorski/Jan_Zaorski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Zaorski (né le 6 mai 1887 à Cracovie et  mort le 10 mars 1956 (à 68 ans) à Varsovie) est un chirurgien et universitaire polonais, de la première moitié du XXe siècle, qui se fit remarquer en organisant un enseignement clandestin de la médecine au cours de l'occupation de la Pologne par les Nazis pendant la Seconde Guerre mondiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans l'ancienne capitale de la Pologne, Jan Zaorski y effectue ses études. Il étudie la médecine et la chirurgie à l'université jagellonne de Cracovie auprès de professeurs réputés, comme Ludwik Rydygier (1850-1920) et Zygmunt Radliński (1874-1941).
 En 1931, il devient directeur de l'hôpital Élisabeth à Varsovie.
